--- a/results/I3_N5_M3_T15_C100_DepCentral_s4_P6_res.xlsx
+++ b/results/I3_N5_M3_T15_C100_DepCentral_s4_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1297.812320224032</v>
+        <v>534.5120426959606</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006999969482421875</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.098315234086005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.138592762077696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>897.2000000000794</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>373.06</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,94 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -766,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -788,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -868,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -986,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>7.619215226232761</v>
       </c>
     </row>
     <row r="7">
@@ -1010,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>13.17515353959458</v>
       </c>
     </row>
     <row r="10">
@@ -1018,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.17515353959458</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1032,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1060,132 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1287,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>103.9450000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1298,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>99.87500000000895</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1309,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>98.50500000001033</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1320,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>97.73000000000893</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1331,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>89.70500000000921</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1342,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>123.1400000000007</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1353,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>124.7250000000007</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14">
@@ -1364,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>135.9750000000007</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15">
@@ -1375,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>137.5650000000007</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16">
@@ -1386,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>125.9600000000007</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17">
@@ -1397,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>55.99500000000073</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -1408,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>58.4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -1419,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>57.00500000000073</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -1430,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>53.86000000000073</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -1441,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>55.98000000000073</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1452,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>46.63000000000007</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
@@ -1463,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>48.8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
@@ -1474,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>46.7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
@@ -1485,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26">
@@ -1496,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>47.43000000000007</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27">
@@ -1507,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>163.8399999999998</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -1518,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>163.6950000000087</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -1529,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>161.68000000001</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
@@ -1540,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>160.4150000000086</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -1551,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>151.6050000000089</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -1562,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>123.1400000000007</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33">
@@ -1573,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>124.7250000000007</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
@@ -1584,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>135.9750000000007</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35">
@@ -1595,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>137.5650000000007</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36">
@@ -1606,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>125.9600000000007</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37">
@@ -1617,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>163.8399999999998</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38">
@@ -1628,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>163.6950000000087</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39">
@@ -1639,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>161.68000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40">
@@ -1650,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>160.4150000000086</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41">
@@ -1661,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>151.6050000000089</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
@@ -1672,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>55.99500000000073</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43">
@@ -1683,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>58.4</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44">
@@ -1694,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>57.00500000000073</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45">
@@ -1705,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>53.86000000000073</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46">
@@ -1716,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>55.98000000000073</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1763,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>23.14000000000073</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -1774,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>24.72500000000073</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1785,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>35.97500000000073</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1796,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>37.56500000000074</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -1807,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>25.96000000000072</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1818,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>63.8399999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1829,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>63.69500000000866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1840,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>61.68000000001004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1851,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>60.41500000000863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1862,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>51.60500000000891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1884,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1895,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -1906,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -1917,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1964,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1975,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.635</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1986,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1997,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.775</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2008,7 +1794,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2019,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2030,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.045</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2041,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2052,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2063,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -2129,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>15.845</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2140,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.515</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -2151,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>15.96</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2162,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>22.21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -2173,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>26.635</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2184,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2195,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2206,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2217,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2228,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2242,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2269,7 +2055,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2283,7 +2069,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2294,7 +2080,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2305,7 +2091,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2316,7 +2102,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2324,10 +2110,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2338,7 +2124,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2349,7 +2135,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2360,31 +2146,9 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="n">
         <v>1</v>
       </c>
     </row>
